--- a/T2/T2_mortgages.xlsx
+++ b/T2/T2_mortgages.xlsx
@@ -64,9 +64,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -139,6 +140,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2427,11 +2429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371101696"/>
-        <c:axId val="371103232"/>
+        <c:axId val="264871936"/>
+        <c:axId val="264873472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371101696"/>
+        <c:axId val="264871936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371103232"/>
+        <c:crossAx val="264873472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2449,7 +2451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371103232"/>
+        <c:axId val="264873472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371101696"/>
+        <c:crossAx val="264871936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3993,11 +3995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371143808"/>
-        <c:axId val="371145344"/>
+        <c:axId val="265692288"/>
+        <c:axId val="265693824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371143808"/>
+        <c:axId val="265692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371145344"/>
+        <c:crossAx val="265693824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4015,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371145344"/>
+        <c:axId val="265693824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,7 +4028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371143808"/>
+        <c:crossAx val="265692288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6322,11 +6324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372331264"/>
-        <c:axId val="372332800"/>
+        <c:axId val="414143232"/>
+        <c:axId val="414144768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372331264"/>
+        <c:axId val="414143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372332800"/>
+        <c:crossAx val="414144768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372332800"/>
+        <c:axId val="414144768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,14 +6357,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372331264"/>
+        <c:crossAx val="414143232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6392,7 +6393,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7159,11 +7159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372345088"/>
-        <c:axId val="372047872"/>
+        <c:axId val="414156672"/>
+        <c:axId val="414158208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372345088"/>
+        <c:axId val="414156672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,7 +7172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372047872"/>
+        <c:crossAx val="414158208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7180,7 +7180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372047872"/>
+        <c:axId val="414158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7191,14 +7191,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372345088"/>
+        <c:crossAx val="414156672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9487,11 +9486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372082560"/>
-        <c:axId val="372084096"/>
+        <c:axId val="414558080"/>
+        <c:axId val="414559616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372082560"/>
+        <c:axId val="414558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9501,7 +9500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372084096"/>
+        <c:crossAx val="414559616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9509,7 +9508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372084096"/>
+        <c:axId val="414559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9520,7 +9519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372082560"/>
+        <c:crossAx val="414558080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10322,11 +10321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372263936"/>
-        <c:axId val="372265728"/>
+        <c:axId val="414272512"/>
+        <c:axId val="414274304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372263936"/>
+        <c:axId val="414272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10335,7 +10334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372265728"/>
+        <c:crossAx val="414274304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10343,7 +10342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372265728"/>
+        <c:axId val="414274304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10354,7 +10353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372263936"/>
+        <c:crossAx val="414272512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10883,7 +10882,7 @@
     <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -10922,7 +10921,7 @@
         <f>B4/12</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
